--- a/Results/Formated_results.xlsx
+++ b/Results/Formated_results.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>ADOS ~ VerbalIQ</t>
   </si>
@@ -147,13 +147,229 @@
   </si>
   <si>
     <t>ADOS ~ SocialIQ</t>
+  </si>
+  <si>
+    <t>13.881</t>
+  </si>
+  <si>
+    <t>0.439</t>
+  </si>
+  <si>
+    <t>13.18</t>
+  </si>
+  <si>
+    <t>14.583</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>-1.507</t>
+  </si>
+  <si>
+    <t>0.512</t>
+  </si>
+  <si>
+    <t>-2.326</t>
+  </si>
+  <si>
+    <t>-0.688</t>
+  </si>
+  <si>
+    <t>-0.398</t>
+  </si>
+  <si>
+    <t>-0.047</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>-1.463</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>-2.391</t>
+  </si>
+  <si>
+    <t>-0.535</t>
+  </si>
+  <si>
+    <t>-0.473</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>0.529</t>
+  </si>
+  <si>
+    <t>-1.756</t>
+  </si>
+  <si>
+    <t>-0.064</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>2.848</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>2.314</t>
+  </si>
+  <si>
+    <t>3.383</t>
+  </si>
+  <si>
+    <t>ß Social</t>
+  </si>
+  <si>
+    <t>ß Verbal</t>
+  </si>
+  <si>
+    <t>ß NonVerbal</t>
+  </si>
+  <si>
+    <t>Table 7: Parameter estimates of model using all IQs as predictors</t>
+  </si>
+  <si>
+    <t>Table 8: Parameter estimates of model using all IQs as predictors and including TD children</t>
+  </si>
+  <si>
+    <t>ß ASD</t>
+  </si>
+  <si>
+    <t>2.619</t>
+  </si>
+  <si>
+    <t>1.801</t>
+  </si>
+  <si>
+    <t>3.436</t>
+  </si>
+  <si>
+    <t>-0.424</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>-0.758</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>-1.442</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>-2.032</t>
+  </si>
+  <si>
+    <t>-0.851</t>
+  </si>
+  <si>
+    <t>-0.233</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>-1.329</t>
+  </si>
+  <si>
+    <t>-0.291</t>
+  </si>
+  <si>
+    <t>-0.412</t>
+  </si>
+  <si>
+    <t>-0.031</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>-0.484</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>-0.987</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>-0.124</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>9.455</t>
+  </si>
+  <si>
+    <t>0.816</t>
+  </si>
+  <si>
+    <t>-0.175</t>
+  </si>
+  <si>
+    <t>2.832</t>
+  </si>
+  <si>
+    <t>0.265</t>
+  </si>
+  <si>
+    <t>2.408</t>
+  </si>
+  <si>
+    <t>3.256</t>
+  </si>
+  <si>
+    <t>8.150</t>
+  </si>
+  <si>
+    <t>10.760</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +395,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -292,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -300,13 +523,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -316,7 +543,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -631,13 +861,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2EA3E2-BA2F-744A-AC47-C37FABB4E5F7}">
-  <dimension ref="A3:J24"/>
+  <dimension ref="A3:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="1" t="s">
@@ -672,25 +906,25 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -698,25 +932,25 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -724,39 +958,39 @@
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="11" spans="1:8" ht="21">
       <c r="A11" s="1" t="s">
@@ -791,25 +1025,25 @@
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -817,25 +1051,25 @@
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -843,42 +1077,42 @@
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>4.87</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="J18" s="15"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="1" t="s">
@@ -913,25 +1147,25 @@
       <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="8">
-        <v>1</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -939,25 +1173,25 @@
       <c r="A22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -965,46 +1199,511 @@
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="11">
         <v>4.87</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="19">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19">
+      <c r="A30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="19">
+      <c r="A32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="19">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="37" spans="1:11" ht="19">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="19">
+      <c r="A38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="19">
+      <c r="A39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="7">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="19">
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="19">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="7">
+        <v>1</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="19">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="19">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A44:K44"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Results/Formated_results.xlsx
+++ b/Results/Formated_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="28040" windowHeight="17060" xr2:uid="{120610EB-BF22-D340-9A5E-F90BF96191DF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{120610EB-BF22-D340-9A5E-F90BF96191DF}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>ADOS ~ VerbalIQ</t>
   </si>
@@ -363,6 +363,42 @@
   </si>
   <si>
     <t>10.760</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>-0.121</t>
+  </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>Table 9: Correlation of different aspects of IQ</t>
+  </si>
+  <si>
+    <t>Verbal - NonVerbal</t>
+  </si>
+  <si>
+    <t>Verbal - Social</t>
+  </si>
+  <si>
+    <t>Social - NonVerbal</t>
   </si>
 </sst>
 </file>
@@ -515,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -528,10 +564,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,7 +587,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -861,15 +903,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2EA3E2-BA2F-744A-AC47-C37FABB4E5F7}">
-  <dimension ref="A3:K44"/>
+  <dimension ref="A3:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -981,16 +1026,16 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="11" spans="1:8" ht="21">
       <c r="A11" s="1" t="s">
@@ -1100,16 +1145,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="18" spans="1:10">
       <c r="J18" s="11"/>
@@ -1222,16 +1267,16 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="19">
       <c r="A28" s="2"/>
@@ -1424,18 +1469,18 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
     </row>
     <row r="37" spans="1:11" ht="19">
       <c r="A37" s="2"/>
@@ -1620,10 +1665,10 @@
       <c r="C42" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -1681,22 +1726,73 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="15"/>
+      <c r="B47" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A50:D50"/>
     <mergeCell ref="A44:K44"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A16:H16"/>
